--- a/dsmb_ccru_tables/category BySubject EXAMPLE_STUDY Cohort C 30OCT2020.xlsx
+++ b/dsmb_ccru_tables/category BySubject EXAMPLE_STUDY Cohort C 30OCT2020.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t xml:space="preserve">Category</t>
   </si>
@@ -29,25 +29,49 @@
     <t xml:space="preserve">% of the subjects that this comprises of the total accrual (N=3)</t>
   </si>
   <si>
+    <t xml:space="preserve">BLOOD AND LYMPHATIC SYSTEM DISORDERS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EAR AND LABYRINTH DISORDERS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 33.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
     <t xml:space="preserve">GASTROINTESTINAL DISORDERS</t>
   </si>
   <si>
-    <t xml:space="preserve">66.67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0</t>
+    <t xml:space="preserve"> 66.67</t>
   </si>
   <si>
     <t xml:space="preserve">GENERAL DISORDERS AND ADMINISTRATION SITE CONDITIONS</t>
   </si>
   <si>
+    <t xml:space="preserve">INFECTIONS AND INFESTATIONS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INVESTIGATIONS</t>
+  </si>
+  <si>
     <t xml:space="preserve">METABOLISM AND NUTRITION DISORDERS</t>
   </si>
   <si>
+    <t xml:space="preserve">MUSCULOSKELETAL AND CONNECTIVE TISSUE DISORDERS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NERVOUS SYSTEM DISORDERS</t>
+  </si>
+  <si>
     <t xml:space="preserve">33.33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MUSCULOSKELETAL AND CONNECTIVE TISSUE DISORDERS</t>
   </si>
   <si>
     <t xml:space="preserve">PSYCHIATRIC DISORDERS</t>
@@ -595,22 +619,22 @@
   <sheetData>
     <row r="1" ht="50" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" ht="82" customHeight="1">
@@ -635,13 +659,13 @@
         <v>5</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>7</v>
@@ -652,75 +676,75 @@
         <v>8</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B13" s="2" t="n">
         <v>2</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D13" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B14" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>6</v>
@@ -729,40 +753,125 @@
         <v>0</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B16" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="8" t="n">
+      <c r="A17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="8" t="n">
+      <c r="E18" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="C19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="10" t="s">
         <v>10</v>
       </c>
     </row>

--- a/dsmb_ccru_tables/category BySubject EXAMPLE_STUDY Cohort C 30OCT2020.xlsx
+++ b/dsmb_ccru_tables/category BySubject EXAMPLE_STUDY Cohort C 30OCT2020.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t xml:space="preserve">Category</t>
   </si>
@@ -20,28 +20,28 @@
     <t xml:space="preserve"># of subjects that have experienced the AE</t>
   </si>
   <si>
-    <t xml:space="preserve">the % of subjects that this comprises of the total accrual (N=3)</t>
+    <t xml:space="preserve">the % of subjects that this comprises of the total accrual (N=5)</t>
   </si>
   <si>
     <t xml:space="preserve"># of subjects that experienced the event at a grade 3 to 5</t>
   </si>
   <si>
-    <t xml:space="preserve">% of the subjects that this comprises of the total accrual (N=3)</t>
+    <t xml:space="preserve">% of the subjects that this comprises of the total accrual (N=5)</t>
   </si>
   <si>
     <t xml:space="preserve">BLOOD AND LYMPHATIC SYSTEM DISORDERS</t>
   </si>
   <si>
-    <t xml:space="preserve">100.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.67</t>
+    <t xml:space="preserve">60.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.00</t>
   </si>
   <si>
     <t xml:space="preserve">EAR AND LABYRINTH DISORDERS</t>
   </si>
   <si>
-    <t xml:space="preserve"> 33.33</t>
+    <t xml:space="preserve">20.00</t>
   </si>
   <si>
     <t xml:space="preserve">0</t>
@@ -50,9 +50,6 @@
     <t xml:space="preserve">GASTROINTESTINAL DISORDERS</t>
   </si>
   <si>
-    <t xml:space="preserve"> 66.67</t>
-  </si>
-  <si>
     <t xml:space="preserve">GENERAL DISORDERS AND ADMINISTRATION SITE CONDITIONS</t>
   </si>
   <si>
@@ -69,9 +66,6 @@
   </si>
   <si>
     <t xml:space="preserve">NERVOUS SYSTEM DISORDERS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.33</t>
   </si>
   <si>
     <t xml:space="preserve">PSYCHIATRIC DISORDERS</t>
@@ -619,22 +613,22 @@
   <sheetData>
     <row r="1" ht="50" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" ht="82" customHeight="1">
@@ -696,7 +690,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D12" s="2" t="n">
         <v>0</v>
@@ -707,13 +701,13 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="2" t="n">
         <v>2</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D13" s="2" t="n">
         <v>0</v>
@@ -724,7 +718,7 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2" t="n">
         <v>1</v>
@@ -741,7 +735,7 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="2" t="n">
         <v>3</v>
@@ -758,7 +752,7 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="2" t="n">
         <v>1</v>
@@ -775,13 +769,13 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="2" t="n">
         <v>2</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D17" s="2" t="n">
         <v>0</v>
@@ -792,24 +786,24 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="2" t="n">
         <v>2</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D18" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B19" s="2" t="n">
         <v>1</v>
@@ -826,7 +820,7 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B20" s="2" t="n">
         <v>1</v>
@@ -843,13 +837,13 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B21" s="2" t="n">
         <v>2</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D21" s="2" t="n">
         <v>0</v>
@@ -860,7 +854,7 @@
     </row>
     <row r="22">
       <c r="A22" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B22" s="8" t="n">
         <v>1</v>
